--- a/2em/1 DES/chamada.xlsx
+++ b/2em/1 DES/chamada.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\sesi2024\2em\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\1 DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5586BD-2DC4-4284-B8F2-E8DA5EF62CB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6345A2A-3AA0-4B14-AC95-104BC9E56FAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="45">
   <si>
     <t>Aluno</t>
   </si>
@@ -533,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH35"/>
+  <dimension ref="A1:AI35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH5" sqref="AH5"/>
+      <selection activeCell="AJ36" sqref="AJ35:AJ36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,9 +547,10 @@
     <col min="14" max="20" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
     <col min="30" max="34" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>32</v>
       </c>
@@ -643,8 +644,11 @@
       <c r="AH1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -747,8 +751,11 @@
       <c r="AH2" s="1">
         <v>45429</v>
       </c>
+      <c r="AI2" s="1">
+        <v>45432</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>24125208</v>
       </c>
@@ -851,8 +858,11 @@
       <c r="AH3" t="s">
         <v>34</v>
       </c>
+      <c r="AI3" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>24125210</v>
       </c>
@@ -955,8 +965,11 @@
       <c r="AH4" t="s">
         <v>34</v>
       </c>
+      <c r="AI4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>40</v>
       </c>
@@ -1023,8 +1036,11 @@
       <c r="AH5" t="s">
         <v>34</v>
       </c>
+      <c r="AI5" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24125230</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="AH6" t="s">
         <v>34</v>
       </c>
+      <c r="AI6" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24125329</v>
       </c>
@@ -1231,8 +1250,11 @@
       <c r="AH7" t="s">
         <v>35</v>
       </c>
+      <c r="AI7" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>24125304</v>
       </c>
@@ -1335,8 +1357,11 @@
       <c r="AH8" t="s">
         <v>34</v>
       </c>
+      <c r="AI8" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>24125331</v>
       </c>
@@ -1439,8 +1464,11 @@
       <c r="AH9" t="s">
         <v>34</v>
       </c>
+      <c r="AI9" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>24125308</v>
       </c>
@@ -1543,8 +1571,11 @@
       <c r="AH10" t="s">
         <v>34</v>
       </c>
+      <c r="AI10" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>24125247</v>
       </c>
@@ -1647,8 +1678,11 @@
       <c r="AH11" t="s">
         <v>34</v>
       </c>
+      <c r="AI11" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>24125212</v>
       </c>
@@ -1751,8 +1785,11 @@
       <c r="AH12" t="s">
         <v>34</v>
       </c>
+      <c r="AI12" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>24125232</v>
       </c>
@@ -1855,8 +1892,11 @@
       <c r="AH13" t="s">
         <v>34</v>
       </c>
+      <c r="AI13" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24125214</v>
       </c>
@@ -1959,8 +1999,11 @@
       <c r="AH14" t="s">
         <v>34</v>
       </c>
+      <c r="AI14" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>37</v>
       </c>
@@ -2060,8 +2103,11 @@
       <c r="AH15" t="s">
         <v>35</v>
       </c>
+      <c r="AI15" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>24125249</v>
       </c>
@@ -2164,8 +2210,11 @@
       <c r="AH16" t="s">
         <v>34</v>
       </c>
+      <c r="AI16" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24125293</v>
       </c>
@@ -2268,8 +2317,11 @@
       <c r="AH17" t="s">
         <v>34</v>
       </c>
+      <c r="AI17" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24125310</v>
       </c>
@@ -2372,8 +2424,11 @@
       <c r="AH18" t="s">
         <v>34</v>
       </c>
+      <c r="AI18" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24125295</v>
       </c>
@@ -2476,8 +2531,11 @@
       <c r="AH19" t="s">
         <v>34</v>
       </c>
+      <c r="AI19" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24125251</v>
       </c>
@@ -2580,8 +2638,11 @@
       <c r="AH20" t="s">
         <v>34</v>
       </c>
+      <c r="AI20" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24125334</v>
       </c>
@@ -2684,8 +2745,11 @@
       <c r="AH21" t="s">
         <v>34</v>
       </c>
+      <c r="AI21" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24125297</v>
       </c>
@@ -2788,8 +2852,11 @@
       <c r="AH22" t="s">
         <v>34</v>
       </c>
+      <c r="AI22" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24125234</v>
       </c>
@@ -2892,8 +2959,11 @@
       <c r="AH23" t="s">
         <v>44</v>
       </c>
+      <c r="AI23" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24125216</v>
       </c>
@@ -2996,8 +3066,11 @@
       <c r="AH24" t="s">
         <v>34</v>
       </c>
+      <c r="AI24" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24125236</v>
       </c>
@@ -3100,8 +3173,11 @@
       <c r="AH25" t="s">
         <v>34</v>
       </c>
+      <c r="AI25" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24125238</v>
       </c>
@@ -3204,8 +3280,11 @@
       <c r="AH26" t="s">
         <v>34</v>
       </c>
+      <c r="AI26" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24125218</v>
       </c>
@@ -3308,8 +3387,11 @@
       <c r="AH27" t="s">
         <v>34</v>
       </c>
+      <c r="AI27" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24125220</v>
       </c>
@@ -3412,8 +3494,11 @@
       <c r="AH28" t="s">
         <v>44</v>
       </c>
+      <c r="AI28" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24125299</v>
       </c>
@@ -3516,8 +3601,11 @@
       <c r="AH29" t="s">
         <v>34</v>
       </c>
+      <c r="AI29" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24125301</v>
       </c>
@@ -3620,8 +3708,11 @@
       <c r="AH30" t="s">
         <v>34</v>
       </c>
+      <c r="AI30" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24125316</v>
       </c>
@@ -3724,8 +3815,11 @@
       <c r="AH31" t="s">
         <v>34</v>
       </c>
+      <c r="AI31" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24125306</v>
       </c>
@@ -3828,8 +3922,11 @@
       <c r="AH32" t="s">
         <v>34</v>
       </c>
+      <c r="AI32" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24125254</v>
       </c>
@@ -3932,8 +4029,11 @@
       <c r="AH33" t="s">
         <v>34</v>
       </c>
+      <c r="AI33" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24125347</v>
       </c>
@@ -4036,15 +4136,18 @@
       <c r="AH34" t="s">
         <v>34</v>
       </c>
+      <c r="AI34" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AF35" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A3:G34">
     <sortCondition ref="B2"/>
   </sortState>
-  <conditionalFormatting sqref="D3:AD34 AF3:AH34">
+  <conditionalFormatting sqref="D3:AD34 AF3:AI34">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/2em/1 DES/chamada.xlsx
+++ b/2em/1 DES/chamada.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\1 DES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wellington\Desktop\sesi2024\2em\1 DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6345A2A-3AA0-4B14-AC95-104BC9E56FAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E477B7-C009-4482-8C1B-ACEE07455C22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chamada" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -536,21 +536,24 @@
   <dimension ref="A1:AI35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ36" sqref="AJ35:AJ36"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="34" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="34" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="D1" t="s">
         <v>32</v>
       </c>
@@ -648,7 +651,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -755,7 +758,7 @@
         <v>45432</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>24125208</v>
       </c>
@@ -862,7 +865,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>24125210</v>
       </c>
@@ -969,12 +972,48 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>24125230</v>
+      </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" t="s">
+        <v>34</v>
       </c>
       <c r="O5" t="s">
         <v>34</v>
@@ -1019,7 +1058,7 @@
         <v>34</v>
       </c>
       <c r="AC5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD5" t="s">
         <v>34</v>
@@ -1037,18 +1076,18 @@
         <v>34</v>
       </c>
       <c r="AI5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>24125230</v>
+        <v>24125329</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -1066,13 +1105,13 @@
         <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s">
         <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L6" t="s">
         <v>34</v>
@@ -1138,24 +1177,24 @@
         <v>34</v>
       </c>
       <c r="AG6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AH6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>24125329</v>
+        <v>24125304</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
@@ -1173,96 +1212,96 @@
         <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7" t="s">
+        <v>34</v>
+      </c>
+      <c r="W7" t="s">
+        <v>34</v>
+      </c>
+      <c r="X7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI7" t="s">
         <v>38</v>
       </c>
-      <c r="L7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R7" t="s">
-        <v>34</v>
-      </c>
-      <c r="S7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T7" t="s">
-        <v>34</v>
-      </c>
-      <c r="U7" t="s">
-        <v>34</v>
-      </c>
-      <c r="V7" t="s">
-        <v>34</v>
-      </c>
-      <c r="W7" t="s">
-        <v>34</v>
-      </c>
-      <c r="X7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>24125304</v>
+        <v>24125331</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -1283,13 +1322,13 @@
         <v>34</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8" t="s">
         <v>34</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
         <v>34</v>
@@ -1337,10 +1376,10 @@
         <v>34</v>
       </c>
       <c r="AB8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AD8" t="s">
         <v>34</v>
@@ -1361,15 +1400,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>24125331</v>
+        <v>24125308</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>34</v>
@@ -1414,7 +1453,7 @@
         <v>34</v>
       </c>
       <c r="R9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S9" t="s">
         <v>34</v>
@@ -1468,15 +1507,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>24125308</v>
+        <v>24125247</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>34</v>
@@ -1497,7 +1536,7 @@
         <v>34</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K10" t="s">
         <v>34</v>
@@ -1521,7 +1560,7 @@
         <v>34</v>
       </c>
       <c r="R10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S10" t="s">
         <v>34</v>
@@ -1575,15 +1614,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>24125247</v>
+        <v>24125212</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>34</v>
@@ -1628,7 +1667,7 @@
         <v>34</v>
       </c>
       <c r="R11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S11" t="s">
         <v>34</v>
@@ -1682,15 +1721,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>24125212</v>
+        <v>24125232</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
         <v>34</v>
@@ -1705,13 +1744,13 @@
         <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" t="s">
         <v>34</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K12" t="s">
         <v>34</v>
@@ -1729,13 +1768,13 @@
         <v>34</v>
       </c>
       <c r="P12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S12" t="s">
         <v>34</v>
@@ -1789,15 +1828,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>24125232</v>
+        <v>24125214</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
@@ -1812,7 +1851,7 @@
         <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
         <v>34</v>
@@ -1836,10 +1875,10 @@
         <v>34</v>
       </c>
       <c r="P13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R13" t="s">
         <v>34</v>
@@ -1896,15 +1935,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>24125214</v>
-      </c>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
         <v>34</v>
@@ -1937,7 +1973,7 @@
         <v>34</v>
       </c>
       <c r="N14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="O14" t="s">
         <v>34</v>
@@ -1946,10 +1982,10 @@
         <v>34</v>
       </c>
       <c r="Q14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="S14" t="s">
         <v>34</v>
@@ -1967,7 +2003,7 @@
         <v>34</v>
       </c>
       <c r="X14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y14" t="s">
         <v>34</v>
@@ -1979,7 +2015,7 @@
         <v>34</v>
       </c>
       <c r="AB14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC14" t="s">
         <v>34</v>
@@ -1988,140 +2024,143 @@
         <v>34</v>
       </c>
       <c r="AE14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AH14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>24125249</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>34</v>
+      </c>
+      <c r="R15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15" t="s">
+        <v>34</v>
+      </c>
+      <c r="T15" t="s">
+        <v>34</v>
+      </c>
+      <c r="U15" t="s">
+        <v>34</v>
+      </c>
+      <c r="V15" t="s">
+        <v>34</v>
+      </c>
+      <c r="W15" t="s">
+        <v>34</v>
+      </c>
+      <c r="X15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M15" t="s">
-        <v>34</v>
-      </c>
-      <c r="N15" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" t="s">
-        <v>34</v>
-      </c>
-      <c r="P15" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>35</v>
-      </c>
-      <c r="R15" t="s">
-        <v>39</v>
-      </c>
-      <c r="S15" t="s">
-        <v>34</v>
-      </c>
-      <c r="T15" t="s">
-        <v>34</v>
-      </c>
-      <c r="U15" t="s">
-        <v>34</v>
-      </c>
-      <c r="V15" t="s">
-        <v>34</v>
-      </c>
-      <c r="W15" t="s">
-        <v>34</v>
-      </c>
-      <c r="X15" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>24125249</v>
+        <v>24125293</v>
       </c>
       <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
         <v>15</v>
       </c>
-      <c r="C16">
-        <v>14</v>
-      </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
         <v>34</v>
@@ -2151,7 +2190,7 @@
         <v>34</v>
       </c>
       <c r="O16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="P16" t="s">
         <v>34</v>
@@ -2160,7 +2199,7 @@
         <v>34</v>
       </c>
       <c r="R16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S16" t="s">
         <v>34</v>
@@ -2193,7 +2232,7 @@
         <v>34</v>
       </c>
       <c r="AC16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AD16" t="s">
         <v>34</v>
@@ -2214,15 +2253,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>24125293</v>
+        <v>24125310</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
         <v>34</v>
@@ -2267,7 +2306,7 @@
         <v>34</v>
       </c>
       <c r="R17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S17" t="s">
         <v>34</v>
@@ -2321,15 +2360,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>24125310</v>
+        <v>24125295</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
         <v>34</v>
@@ -2359,7 +2398,7 @@
         <v>34</v>
       </c>
       <c r="M18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N18" t="s">
         <v>34</v>
@@ -2428,30 +2467,30 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>24125295</v>
+        <v>24125251</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
         <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I19" t="s">
         <v>34</v>
@@ -2463,13 +2502,13 @@
         <v>34</v>
       </c>
       <c r="L19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O19" t="s">
         <v>34</v>
@@ -2511,10 +2550,10 @@
         <v>34</v>
       </c>
       <c r="AB19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD19" t="s">
         <v>34</v>
@@ -2535,30 +2574,30 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>24125251</v>
+        <v>24125334</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
         <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I20" t="s">
         <v>34</v>
@@ -2570,13 +2609,13 @@
         <v>34</v>
       </c>
       <c r="L20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O20" t="s">
         <v>34</v>
@@ -2618,10 +2657,10 @@
         <v>34</v>
       </c>
       <c r="AB20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD20" t="s">
         <v>34</v>
@@ -2642,15 +2681,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>24125334</v>
+        <v>24125297</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
         <v>34</v>
@@ -2689,7 +2728,7 @@
         <v>34</v>
       </c>
       <c r="P21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q21" t="s">
         <v>34</v>
@@ -2749,15 +2788,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>24125297</v>
+        <v>24125234</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
         <v>34</v>
@@ -2796,7 +2835,7 @@
         <v>34</v>
       </c>
       <c r="P22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q22" t="s">
         <v>34</v>
@@ -2850,21 +2889,21 @@
         <v>34</v>
       </c>
       <c r="AH22" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AI22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>24125234</v>
+        <v>24125216</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
         <v>34</v>
@@ -2942,7 +2981,7 @@
         <v>34</v>
       </c>
       <c r="AC23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD23" t="s">
         <v>34</v>
@@ -2954,24 +2993,24 @@
         <v>34</v>
       </c>
       <c r="AG23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AH23" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AI23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>24125216</v>
+        <v>24125236</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
         <v>34</v>
@@ -2986,7 +3025,7 @@
         <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I24" t="s">
         <v>34</v>
@@ -3013,7 +3052,7 @@
         <v>34</v>
       </c>
       <c r="Q24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R24" t="s">
         <v>34</v>
@@ -3022,7 +3061,7 @@
         <v>34</v>
       </c>
       <c r="T24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U24" t="s">
         <v>34</v>
@@ -3037,10 +3076,10 @@
         <v>34</v>
       </c>
       <c r="Y24" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Z24" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AA24" t="s">
         <v>34</v>
@@ -3051,17 +3090,17 @@
       <c r="AC24" t="s">
         <v>35</v>
       </c>
-      <c r="AD24" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>34</v>
+      <c r="AD24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="AF24" t="s">
         <v>34</v>
       </c>
       <c r="AG24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AH24" t="s">
         <v>34</v>
@@ -3070,15 +3109,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>24125236</v>
+        <v>24125238</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
         <v>34</v>
@@ -3093,7 +3132,7 @@
         <v>34</v>
       </c>
       <c r="H25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I25" t="s">
         <v>34</v>
@@ -3120,7 +3159,7 @@
         <v>34</v>
       </c>
       <c r="Q25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R25" t="s">
         <v>34</v>
@@ -3129,7 +3168,7 @@
         <v>34</v>
       </c>
       <c r="T25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U25" t="s">
         <v>34</v>
@@ -3144,10 +3183,10 @@
         <v>34</v>
       </c>
       <c r="Y25" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Z25" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AA25" t="s">
         <v>34</v>
@@ -3158,11 +3197,11 @@
       <c r="AC25" t="s">
         <v>35</v>
       </c>
-      <c r="AD25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE25" s="1" t="s">
-        <v>39</v>
+      <c r="AD25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>34</v>
       </c>
       <c r="AF25" t="s">
         <v>34</v>
@@ -3177,15 +3216,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>24125238</v>
+        <v>24125218</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
         <v>34</v>
@@ -3263,7 +3302,7 @@
         <v>34</v>
       </c>
       <c r="AC26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD26" t="s">
         <v>34</v>
@@ -3284,15 +3323,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>24125218</v>
+        <v>24125220</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>34</v>
@@ -3355,7 +3394,7 @@
         <v>34</v>
       </c>
       <c r="X27" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Y27" t="s">
         <v>34</v>
@@ -3385,766 +3424,730 @@
         <v>34</v>
       </c>
       <c r="AH27" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AI27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>24125299</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K28" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" t="s">
+        <v>34</v>
+      </c>
+      <c r="N28" t="s">
+        <v>34</v>
+      </c>
+      <c r="O28" t="s">
+        <v>34</v>
+      </c>
+      <c r="P28" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>34</v>
+      </c>
+      <c r="R28" t="s">
+        <v>34</v>
+      </c>
+      <c r="S28" t="s">
+        <v>34</v>
+      </c>
+      <c r="T28" t="s">
+        <v>34</v>
+      </c>
+      <c r="U28" t="s">
+        <v>34</v>
+      </c>
+      <c r="V28" t="s">
+        <v>34</v>
+      </c>
+      <c r="W28" t="s">
+        <v>34</v>
+      </c>
+      <c r="X28" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>24125301</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" t="s">
+        <v>34</v>
+      </c>
+      <c r="L29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M29" t="s">
+        <v>34</v>
+      </c>
+      <c r="N29" t="s">
+        <v>34</v>
+      </c>
+      <c r="O29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P29" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>34</v>
+      </c>
+      <c r="R29" t="s">
+        <v>34</v>
+      </c>
+      <c r="S29" t="s">
+        <v>34</v>
+      </c>
+      <c r="T29" t="s">
+        <v>34</v>
+      </c>
+      <c r="U29" t="s">
+        <v>34</v>
+      </c>
+      <c r="V29" t="s">
+        <v>34</v>
+      </c>
+      <c r="W29" t="s">
+        <v>34</v>
+      </c>
+      <c r="X29" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>24125316</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" t="s">
+        <v>35</v>
+      </c>
+      <c r="K30" t="s">
         <v>38</v>
       </c>
+      <c r="L30" t="s">
+        <v>34</v>
+      </c>
+      <c r="M30" t="s">
+        <v>34</v>
+      </c>
+      <c r="N30" t="s">
+        <v>34</v>
+      </c>
+      <c r="O30" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>34</v>
+      </c>
+      <c r="R30" t="s">
+        <v>34</v>
+      </c>
+      <c r="S30" t="s">
+        <v>34</v>
+      </c>
+      <c r="T30" t="s">
+        <v>34</v>
+      </c>
+      <c r="U30" t="s">
+        <v>34</v>
+      </c>
+      <c r="V30" t="s">
+        <v>35</v>
+      </c>
+      <c r="W30" t="s">
+        <v>34</v>
+      </c>
+      <c r="X30" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>24125220</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" t="s">
-        <v>34</v>
-      </c>
-      <c r="J28" t="s">
-        <v>34</v>
-      </c>
-      <c r="K28" t="s">
-        <v>34</v>
-      </c>
-      <c r="L28" t="s">
-        <v>34</v>
-      </c>
-      <c r="M28" t="s">
-        <v>34</v>
-      </c>
-      <c r="N28" t="s">
-        <v>34</v>
-      </c>
-      <c r="O28" t="s">
-        <v>34</v>
-      </c>
-      <c r="P28" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>34</v>
-      </c>
-      <c r="R28" t="s">
-        <v>34</v>
-      </c>
-      <c r="S28" t="s">
-        <v>34</v>
-      </c>
-      <c r="T28" t="s">
-        <v>34</v>
-      </c>
-      <c r="U28" t="s">
-        <v>34</v>
-      </c>
-      <c r="V28" t="s">
-        <v>34</v>
-      </c>
-      <c r="W28" t="s">
-        <v>34</v>
-      </c>
-      <c r="X28" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI28" t="s">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>24125306</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" t="s">
+        <v>34</v>
+      </c>
+      <c r="M31" t="s">
+        <v>34</v>
+      </c>
+      <c r="N31" t="s">
+        <v>34</v>
+      </c>
+      <c r="O31" t="s">
+        <v>34</v>
+      </c>
+      <c r="P31" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>35</v>
+      </c>
+      <c r="R31" t="s">
+        <v>34</v>
+      </c>
+      <c r="S31" t="s">
+        <v>34</v>
+      </c>
+      <c r="T31" t="s">
+        <v>34</v>
+      </c>
+      <c r="U31" t="s">
+        <v>34</v>
+      </c>
+      <c r="V31" t="s">
+        <v>34</v>
+      </c>
+      <c r="W31" t="s">
+        <v>34</v>
+      </c>
+      <c r="X31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>24125299</v>
-      </c>
-      <c r="B29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J29" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" t="s">
-        <v>34</v>
-      </c>
-      <c r="L29" t="s">
-        <v>34</v>
-      </c>
-      <c r="M29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N29" t="s">
-        <v>34</v>
-      </c>
-      <c r="O29" t="s">
-        <v>34</v>
-      </c>
-      <c r="P29" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S29" t="s">
-        <v>34</v>
-      </c>
-      <c r="T29" t="s">
-        <v>34</v>
-      </c>
-      <c r="U29" t="s">
-        <v>34</v>
-      </c>
-      <c r="V29" t="s">
-        <v>34</v>
-      </c>
-      <c r="W29" t="s">
-        <v>34</v>
-      </c>
-      <c r="X29" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>35</v>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>24125254</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" t="s">
+        <v>34</v>
+      </c>
+      <c r="K32" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" t="s">
+        <v>34</v>
+      </c>
+      <c r="N32" t="s">
+        <v>34</v>
+      </c>
+      <c r="O32" t="s">
+        <v>34</v>
+      </c>
+      <c r="P32" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>34</v>
+      </c>
+      <c r="R32" t="s">
+        <v>35</v>
+      </c>
+      <c r="S32" t="s">
+        <v>34</v>
+      </c>
+      <c r="T32" t="s">
+        <v>34</v>
+      </c>
+      <c r="U32" t="s">
+        <v>34</v>
+      </c>
+      <c r="V32" t="s">
+        <v>34</v>
+      </c>
+      <c r="W32" t="s">
+        <v>34</v>
+      </c>
+      <c r="X32" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>24125301</v>
-      </c>
-      <c r="B30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30">
-        <v>28</v>
-      </c>
-      <c r="D30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" t="s">
-        <v>34</v>
-      </c>
-      <c r="H30" t="s">
-        <v>34</v>
-      </c>
-      <c r="I30" t="s">
-        <v>34</v>
-      </c>
-      <c r="J30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K30" t="s">
-        <v>34</v>
-      </c>
-      <c r="L30" t="s">
-        <v>34</v>
-      </c>
-      <c r="M30" t="s">
-        <v>34</v>
-      </c>
-      <c r="N30" t="s">
-        <v>34</v>
-      </c>
-      <c r="O30" t="s">
-        <v>34</v>
-      </c>
-      <c r="P30" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>34</v>
-      </c>
-      <c r="R30" t="s">
-        <v>34</v>
-      </c>
-      <c r="S30" t="s">
-        <v>34</v>
-      </c>
-      <c r="T30" t="s">
-        <v>34</v>
-      </c>
-      <c r="U30" t="s">
-        <v>34</v>
-      </c>
-      <c r="V30" t="s">
-        <v>34</v>
-      </c>
-      <c r="W30" t="s">
-        <v>34</v>
-      </c>
-      <c r="X30" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI30" t="s">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>24125347</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" t="s">
+        <v>34</v>
+      </c>
+      <c r="J33" t="s">
+        <v>34</v>
+      </c>
+      <c r="K33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L33" t="s">
+        <v>34</v>
+      </c>
+      <c r="M33" t="s">
+        <v>34</v>
+      </c>
+      <c r="N33" t="s">
+        <v>34</v>
+      </c>
+      <c r="O33" t="s">
+        <v>34</v>
+      </c>
+      <c r="P33" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>34</v>
+      </c>
+      <c r="R33" t="s">
+        <v>34</v>
+      </c>
+      <c r="S33" t="s">
+        <v>34</v>
+      </c>
+      <c r="T33" t="s">
+        <v>34</v>
+      </c>
+      <c r="U33" t="s">
+        <v>34</v>
+      </c>
+      <c r="V33" t="s">
+        <v>34</v>
+      </c>
+      <c r="W33" t="s">
+        <v>34</v>
+      </c>
+      <c r="X33" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>24125316</v>
-      </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31">
-        <v>29</v>
-      </c>
-      <c r="D31" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" t="s">
-        <v>34</v>
-      </c>
-      <c r="I31" t="s">
-        <v>35</v>
-      </c>
-      <c r="J31" t="s">
-        <v>35</v>
-      </c>
-      <c r="K31" t="s">
-        <v>38</v>
-      </c>
-      <c r="L31" t="s">
-        <v>34</v>
-      </c>
-      <c r="M31" t="s">
-        <v>34</v>
-      </c>
-      <c r="N31" t="s">
-        <v>34</v>
-      </c>
-      <c r="O31" t="s">
-        <v>34</v>
-      </c>
-      <c r="P31" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>34</v>
-      </c>
-      <c r="R31" t="s">
-        <v>34</v>
-      </c>
-      <c r="S31" t="s">
-        <v>34</v>
-      </c>
-      <c r="T31" t="s">
-        <v>34</v>
-      </c>
-      <c r="U31" t="s">
-        <v>34</v>
-      </c>
-      <c r="V31" t="s">
-        <v>35</v>
-      </c>
-      <c r="W31" t="s">
-        <v>34</v>
-      </c>
-      <c r="X31" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI31" t="s">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="O34" t="s">
+        <v>34</v>
+      </c>
+      <c r="P34" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>34</v>
+      </c>
+      <c r="R34" t="s">
+        <v>34</v>
+      </c>
+      <c r="S34" t="s">
+        <v>34</v>
+      </c>
+      <c r="T34" t="s">
+        <v>34</v>
+      </c>
+      <c r="U34" t="s">
+        <v>34</v>
+      </c>
+      <c r="V34" t="s">
+        <v>34</v>
+      </c>
+      <c r="W34" t="s">
+        <v>34</v>
+      </c>
+      <c r="X34" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>24125306</v>
-      </c>
-      <c r="B32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32">
-        <v>30</v>
-      </c>
-      <c r="D32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" t="s">
-        <v>34</v>
-      </c>
-      <c r="H32" t="s">
-        <v>34</v>
-      </c>
-      <c r="I32" t="s">
-        <v>34</v>
-      </c>
-      <c r="J32" t="s">
-        <v>34</v>
-      </c>
-      <c r="K32" t="s">
-        <v>34</v>
-      </c>
-      <c r="L32" t="s">
-        <v>34</v>
-      </c>
-      <c r="M32" t="s">
-        <v>34</v>
-      </c>
-      <c r="N32" t="s">
-        <v>34</v>
-      </c>
-      <c r="O32" t="s">
-        <v>34</v>
-      </c>
-      <c r="P32" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>35</v>
-      </c>
-      <c r="R32" t="s">
-        <v>34</v>
-      </c>
-      <c r="S32" t="s">
-        <v>34</v>
-      </c>
-      <c r="T32" t="s">
-        <v>34</v>
-      </c>
-      <c r="U32" t="s">
-        <v>34</v>
-      </c>
-      <c r="V32" t="s">
-        <v>34</v>
-      </c>
-      <c r="W32" t="s">
-        <v>34</v>
-      </c>
-      <c r="X32" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>24125254</v>
-      </c>
-      <c r="B33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33">
-        <v>31</v>
-      </c>
-      <c r="D33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" t="s">
-        <v>34</v>
-      </c>
-      <c r="I33" t="s">
-        <v>34</v>
-      </c>
-      <c r="J33" t="s">
-        <v>34</v>
-      </c>
-      <c r="K33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L33" t="s">
-        <v>34</v>
-      </c>
-      <c r="M33" t="s">
-        <v>34</v>
-      </c>
-      <c r="N33" t="s">
-        <v>34</v>
-      </c>
-      <c r="O33" t="s">
-        <v>34</v>
-      </c>
-      <c r="P33" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>34</v>
-      </c>
-      <c r="R33" t="s">
-        <v>35</v>
-      </c>
-      <c r="S33" t="s">
-        <v>34</v>
-      </c>
-      <c r="T33" t="s">
-        <v>34</v>
-      </c>
-      <c r="U33" t="s">
-        <v>34</v>
-      </c>
-      <c r="V33" t="s">
-        <v>34</v>
-      </c>
-      <c r="W33" t="s">
-        <v>34</v>
-      </c>
-      <c r="X33" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>24125347</v>
-      </c>
-      <c r="B34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34">
-        <v>32</v>
-      </c>
-      <c r="D34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" t="s">
-        <v>34</v>
-      </c>
-      <c r="I34" t="s">
-        <v>34</v>
-      </c>
-      <c r="J34" t="s">
-        <v>34</v>
-      </c>
-      <c r="K34" t="s">
-        <v>34</v>
-      </c>
-      <c r="L34" t="s">
-        <v>34</v>
-      </c>
-      <c r="M34" t="s">
-        <v>34</v>
-      </c>
-      <c r="N34" t="s">
-        <v>34</v>
-      </c>
-      <c r="O34" t="s">
-        <v>34</v>
-      </c>
-      <c r="P34" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>34</v>
-      </c>
-      <c r="R34" t="s">
-        <v>34</v>
-      </c>
-      <c r="S34" t="s">
-        <v>34</v>
-      </c>
-      <c r="T34" t="s">
-        <v>34</v>
-      </c>
-      <c r="U34" t="s">
-        <v>34</v>
-      </c>
-      <c r="V34" t="s">
-        <v>34</v>
-      </c>
-      <c r="W34" t="s">
-        <v>34</v>
-      </c>
-      <c r="X34" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
       <c r="AF35" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A3:G34">
+  <sortState ref="A3:AI34">
     <sortCondition ref="B2"/>
   </sortState>
   <conditionalFormatting sqref="D3:AD34 AF3:AI34">
